--- a/Code/Results/Cases/Case_1_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_183/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.117948433259143</v>
+        <v>4.453082120904227</v>
       </c>
       <c r="E2">
-        <v>33.24564014523218</v>
+        <v>16.80072893514018</v>
       </c>
       <c r="F2">
-        <v>56.03349572408069</v>
+        <v>31.66688530865395</v>
       </c>
       <c r="G2">
-        <v>90.90791262272087</v>
+        <v>47.97825748599409</v>
       </c>
       <c r="H2">
-        <v>22.59859069808387</v>
+        <v>14.99599398427064</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -447,19 +447,19 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>6.564725168179661</v>
+        <v>4.256110385768206</v>
       </c>
       <c r="E3">
-        <v>30.44602407240642</v>
+        <v>15.81414347791592</v>
       </c>
       <c r="F3">
-        <v>51.50995540373383</v>
+        <v>30.13649976548376</v>
       </c>
       <c r="G3">
-        <v>83.54468293113754</v>
+        <v>45.07585997036804</v>
       </c>
       <c r="H3">
-        <v>20.76918405709201</v>
+        <v>14.56739984798546</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -473,19 +473,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6.220779729630176</v>
+        <v>4.129921971931085</v>
       </c>
       <c r="E4">
-        <v>28.70360774165392</v>
+        <v>15.18345797957188</v>
       </c>
       <c r="F4">
-        <v>48.66662396442938</v>
+        <v>29.16934848132695</v>
       </c>
       <c r="G4">
-        <v>78.91792757778687</v>
+        <v>43.21230408299174</v>
       </c>
       <c r="H4">
-        <v>19.62021966259332</v>
+        <v>14.30402308097856</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -499,19 +499,19 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>6.079077255976913</v>
+        <v>4.077210539987675</v>
       </c>
       <c r="E5">
-        <v>27.98506360375694</v>
+        <v>14.92044224378863</v>
       </c>
       <c r="F5">
-        <v>47.4884718959206</v>
+        <v>28.76891537651168</v>
       </c>
       <c r="G5">
-        <v>77.00104442509067</v>
+        <v>42.43304870019231</v>
       </c>
       <c r="H5">
-        <v>19.14434842402647</v>
+        <v>14.19681494693909</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -525,19 +525,19 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>6.055442832268755</v>
+        <v>4.068381018414702</v>
       </c>
       <c r="E6">
-        <v>27.86517127601033</v>
+        <v>14.87641457860606</v>
       </c>
       <c r="F6">
-        <v>47.29159112462239</v>
+        <v>28.70206186205785</v>
       </c>
       <c r="G6">
-        <v>76.68072534055575</v>
+        <v>42.30247733761892</v>
       </c>
       <c r="H6">
-        <v>19.06483765744452</v>
+        <v>14.17902561583316</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -551,19 +551,19 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>6.218875465850301</v>
+        <v>4.12921626029833</v>
       </c>
       <c r="E7">
-        <v>28.6939546294435</v>
+        <v>15.17993479371134</v>
       </c>
       <c r="F7">
-        <v>48.65081722954513</v>
+        <v>29.16397279584879</v>
       </c>
       <c r="G7">
-        <v>78.89220881630868</v>
+        <v>43.20187414878651</v>
       </c>
       <c r="H7">
-        <v>19.61383430053033</v>
+        <v>14.30257651222955</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -577,19 +577,19 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>6.927761462534749</v>
+        <v>4.386272154184288</v>
       </c>
       <c r="E8">
-        <v>32.28343237765772</v>
+        <v>16.46586561567113</v>
       </c>
       <c r="F8">
-        <v>54.48547941948188</v>
+        <v>31.14524790463043</v>
       </c>
       <c r="G8">
-        <v>88.38772385987025</v>
+        <v>46.99476461840644</v>
       </c>
       <c r="H8">
-        <v>21.9723352668896</v>
+        <v>14.84836263646835</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -603,19 +603,19 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>8.313561151386031</v>
+        <v>4.847626781533299</v>
       </c>
       <c r="E9">
-        <v>39.29836858976721</v>
+        <v>18.9696309584411</v>
       </c>
       <c r="F9">
-        <v>65.58324063446844</v>
+        <v>34.79019700568817</v>
       </c>
       <c r="G9">
-        <v>106.467466346509</v>
+        <v>53.76441982954865</v>
       </c>
       <c r="H9">
-        <v>26.46707208226039</v>
+        <v>15.90964749827232</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -629,19 +629,19 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>9.393072066362167</v>
+        <v>5.159375015272057</v>
       </c>
       <c r="E10">
-        <v>44.79031850332382</v>
+        <v>20.70052647128698</v>
       </c>
       <c r="F10">
-        <v>73.9039986366331</v>
+        <v>37.29712272872885</v>
       </c>
       <c r="G10">
-        <v>120.0492414640807</v>
+        <v>58.30908890538312</v>
       </c>
       <c r="H10">
-        <v>29.84590663756823</v>
+        <v>16.67484774318619</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -655,19 +655,19 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>9.924779221175708</v>
+        <v>5.295119806458881</v>
       </c>
       <c r="E11">
-        <v>47.51498107907747</v>
+        <v>21.4463021710597</v>
       </c>
       <c r="F11">
-        <v>77.88147330100396</v>
+        <v>38.39657939506924</v>
       </c>
       <c r="G11">
-        <v>126.5528085089368</v>
+        <v>60.280539084373</v>
       </c>
       <c r="H11">
-        <v>31.46433111800177</v>
+        <v>17.0181105394761</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>10.13636775195783</v>
+        <v>5.345639535608059</v>
       </c>
       <c r="E12">
-        <v>48.60442632030569</v>
+        <v>21.72277565408117</v>
       </c>
       <c r="F12">
-        <v>79.43986259407197</v>
+        <v>38.8067745188044</v>
       </c>
       <c r="G12">
-        <v>129.1033499151022</v>
+        <v>61.01311911472015</v>
       </c>
       <c r="H12">
-        <v>32.09910688371925</v>
+        <v>17.14727530363974</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>10.0902363830598</v>
+        <v>5.334798663661791</v>
       </c>
       <c r="E13">
-        <v>48.36661410310717</v>
+        <v>21.66349534754373</v>
       </c>
       <c r="F13">
-        <v>79.10132678293812</v>
+        <v>38.71870855538845</v>
       </c>
       <c r="G13">
-        <v>128.5491594122264</v>
+        <v>60.85596817346873</v>
       </c>
       <c r="H13">
-        <v>31.96117757104103</v>
+        <v>17.11949578527255</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -733,19 +733,19 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>9.941944613208303</v>
+        <v>5.299293861980868</v>
       </c>
       <c r="E14">
-        <v>47.60324170131936</v>
+        <v>21.46916648747221</v>
       </c>
       <c r="F14">
-        <v>78.00843325340361</v>
+        <v>38.43045085574378</v>
       </c>
       <c r="G14">
-        <v>126.7605436609519</v>
+        <v>60.34108956117134</v>
       </c>
       <c r="H14">
-        <v>31.51603064341676</v>
+        <v>17.02875414856349</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -759,19 +759,19 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>9.852629584382074</v>
+        <v>5.277430761849376</v>
       </c>
       <c r="E15">
-        <v>47.14422680566008</v>
+        <v>21.34936291773653</v>
       </c>
       <c r="F15">
-        <v>77.34682033243337</v>
+        <v>38.25307759903464</v>
       </c>
       <c r="G15">
-        <v>125.6780976155799</v>
+        <v>60.02388868579958</v>
       </c>
       <c r="H15">
-        <v>31.24664253660736</v>
+        <v>16.97306174473766</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>9.359453866363729</v>
+        <v>5.150380618130093</v>
       </c>
       <c r="E16">
-        <v>44.61858315139335</v>
+        <v>20.65095500525957</v>
       </c>
       <c r="F16">
-        <v>73.64968622820894</v>
+        <v>37.22442356079723</v>
       </c>
       <c r="G16">
-        <v>119.6336921692031</v>
+        <v>58.17830377378787</v>
       </c>
       <c r="H16">
-        <v>29.74250584016868</v>
+        <v>16.65230639989398</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>9.069639047588964</v>
+        <v>5.070875926456229</v>
       </c>
       <c r="E17">
-        <v>43.1403014576235</v>
+        <v>20.21187991088265</v>
       </c>
       <c r="F17">
-        <v>71.44398488205556</v>
+        <v>36.58269053228319</v>
       </c>
       <c r="G17">
-        <v>116.0308201286632</v>
+        <v>57.02138715638991</v>
       </c>
       <c r="H17">
-        <v>28.84605831953505</v>
+        <v>16.45420217812308</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -837,19 +837,19 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>8.90640640117531</v>
+        <v>5.024575959885103</v>
       </c>
       <c r="E18">
-        <v>42.30925376478726</v>
+        <v>19.95541536592154</v>
       </c>
       <c r="F18">
-        <v>70.19141053180351</v>
+        <v>36.20973971098359</v>
       </c>
       <c r="G18">
-        <v>113.9857790194211</v>
+        <v>56.34693520985561</v>
       </c>
       <c r="H18">
-        <v>28.3372661313803</v>
+        <v>16.33981001259283</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -863,19 +863,19 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>8.851640870270055</v>
+        <v>5.008801897977285</v>
       </c>
       <c r="E19">
-        <v>42.0306567925815</v>
+        <v>19.86790610021647</v>
       </c>
       <c r="F19">
-        <v>69.76955167229345</v>
+        <v>36.08281351125076</v>
       </c>
       <c r="G19">
-        <v>113.2971701553254</v>
+        <v>56.11703346922731</v>
       </c>
       <c r="H19">
-        <v>28.16595259224449</v>
+        <v>16.30100592805423</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>9.100108981442782</v>
+        <v>5.079398517153265</v>
       </c>
       <c r="E20">
-        <v>43.2955472212946</v>
+        <v>20.25902557245059</v>
       </c>
       <c r="F20">
-        <v>71.67699005828163</v>
+        <v>36.65140384155783</v>
       </c>
       <c r="G20">
-        <v>116.4113151973263</v>
+        <v>57.14547825128371</v>
       </c>
       <c r="H20">
-        <v>28.94072650946129</v>
+        <v>16.47533801822654</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>9.985172229555591</v>
+        <v>5.309746544556227</v>
       </c>
       <c r="E21">
-        <v>47.82560118421797</v>
+        <v>21.52640628333934</v>
       </c>
       <c r="F21">
-        <v>78.32774261052127</v>
+        <v>38.51528771957194</v>
       </c>
       <c r="G21">
-        <v>127.2830476160728</v>
+        <v>60.49270200548483</v>
       </c>
       <c r="H21">
-        <v>31.64606848862714</v>
+        <v>17.05543041105215</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>10.62848554196553</v>
+        <v>5.455137147564244</v>
       </c>
       <c r="E22">
-        <v>51.1527341234156</v>
+        <v>22.32013858859543</v>
       </c>
       <c r="F22">
-        <v>83.00687130045031</v>
+        <v>39.69753703054364</v>
       </c>
       <c r="G22">
-        <v>134.9471908816513</v>
+        <v>62.59886043891652</v>
       </c>
       <c r="H22">
-        <v>33.55364072727301</v>
+        <v>17.42971607441617</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -967,19 +967,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>10.27669120441184</v>
+        <v>5.378014062561181</v>
       </c>
       <c r="E23">
-        <v>49.32886037695849</v>
+        <v>21.89965602861503</v>
       </c>
       <c r="F23">
-        <v>80.46532830195116</v>
+        <v>39.06990661277875</v>
       </c>
       <c r="G23">
-        <v>130.7825003784467</v>
+        <v>61.48225963977133</v>
       </c>
       <c r="H23">
-        <v>32.5170308815139</v>
+        <v>17.23043429362994</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>9.086323257699418</v>
+        <v>5.075547295935126</v>
       </c>
       <c r="E24">
-        <v>43.22530352389228</v>
+        <v>20.23772358888641</v>
       </c>
       <c r="F24">
-        <v>71.57160166831474</v>
+        <v>36.62035102466099</v>
       </c>
       <c r="G24">
-        <v>116.2392140847116</v>
+        <v>57.08940569978326</v>
       </c>
       <c r="H24">
-        <v>28.89790715461467</v>
+        <v>16.46578405071606</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>7.934064160509126</v>
+        <v>4.72752760016914</v>
       </c>
       <c r="E25">
-        <v>37.37543895393703</v>
+        <v>18.2949846601868</v>
       </c>
       <c r="F25">
-        <v>62.58753621973671</v>
+        <v>33.83266512629793</v>
       </c>
       <c r="G25">
-        <v>101.5838375087878</v>
+        <v>52.0071702442389</v>
       </c>
       <c r="H25">
-        <v>25.25256024800284</v>
+        <v>15.62447975441803</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_183/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_183/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.453082120904227</v>
+        <v>7.117948433259112</v>
       </c>
       <c r="E2">
-        <v>16.80072893514018</v>
+        <v>33.24564014523232</v>
       </c>
       <c r="F2">
-        <v>31.66688530865395</v>
+        <v>56.03349572408079</v>
       </c>
       <c r="G2">
-        <v>47.97825748599409</v>
+        <v>90.90791262272101</v>
       </c>
       <c r="H2">
-        <v>14.99599398427064</v>
+        <v>22.59859069808392</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -447,19 +447,19 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.256110385768206</v>
+        <v>6.564725168179692</v>
       </c>
       <c r="E3">
-        <v>15.81414347791592</v>
+        <v>30.44602407240641</v>
       </c>
       <c r="F3">
-        <v>30.13649976548376</v>
+        <v>51.50995540373381</v>
       </c>
       <c r="G3">
-        <v>45.07585997036804</v>
+        <v>83.54468293113753</v>
       </c>
       <c r="H3">
-        <v>14.56739984798546</v>
+        <v>20.76918405709201</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -473,19 +473,19 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>4.129921971931085</v>
+        <v>6.220779729630141</v>
       </c>
       <c r="E4">
-        <v>15.18345797957188</v>
+        <v>28.7036077416539</v>
       </c>
       <c r="F4">
-        <v>29.16934848132695</v>
+        <v>48.66662396442948</v>
       </c>
       <c r="G4">
-        <v>43.21230408299174</v>
+        <v>78.91792757778707</v>
       </c>
       <c r="H4">
-        <v>14.30402308097856</v>
+        <v>19.62021966259334</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -499,19 +499,19 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>4.077210539987675</v>
+        <v>6.079077255976951</v>
       </c>
       <c r="E5">
-        <v>14.92044224378863</v>
+        <v>27.98506360375701</v>
       </c>
       <c r="F5">
-        <v>28.76891537651168</v>
+        <v>47.48847189592084</v>
       </c>
       <c r="G5">
-        <v>42.43304870019231</v>
+        <v>77.00104442509101</v>
       </c>
       <c r="H5">
-        <v>14.19681494693909</v>
+        <v>19.14434842402658</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -525,19 +525,19 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>4.068381018414702</v>
+        <v>6.055442832268675</v>
       </c>
       <c r="E6">
-        <v>14.87641457860606</v>
+        <v>27.86517127601023</v>
       </c>
       <c r="F6">
-        <v>28.70206186205785</v>
+        <v>47.29159112462253</v>
       </c>
       <c r="G6">
-        <v>42.30247733761892</v>
+        <v>76.68072534055594</v>
       </c>
       <c r="H6">
-        <v>14.17902561583316</v>
+        <v>19.06483765744459</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -551,19 +551,19 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4.12921626029833</v>
+        <v>6.218875465850209</v>
       </c>
       <c r="E7">
-        <v>15.17993479371134</v>
+        <v>28.69395462944357</v>
       </c>
       <c r="F7">
-        <v>29.16397279584879</v>
+        <v>48.65081722954523</v>
       </c>
       <c r="G7">
-        <v>43.20187414878651</v>
+        <v>78.89220881630882</v>
       </c>
       <c r="H7">
-        <v>14.30257651222955</v>
+        <v>19.61383430053033</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -577,19 +577,19 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>4.386272154184288</v>
+        <v>6.927761462534694</v>
       </c>
       <c r="E8">
-        <v>16.46586561567113</v>
+        <v>32.2834323776577</v>
       </c>
       <c r="F8">
-        <v>31.14524790463043</v>
+        <v>54.485479419482</v>
       </c>
       <c r="G8">
-        <v>46.99476461840644</v>
+        <v>88.38772385987042</v>
       </c>
       <c r="H8">
-        <v>14.84836263646835</v>
+        <v>21.97233526688964</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -603,19 +603,19 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>4.847626781533299</v>
+        <v>8.313561151385937</v>
       </c>
       <c r="E9">
-        <v>18.9696309584411</v>
+        <v>39.29836858976714</v>
       </c>
       <c r="F9">
-        <v>34.79019700568817</v>
+        <v>65.58324063446841</v>
       </c>
       <c r="G9">
-        <v>53.76441982954865</v>
+        <v>106.4674663465089</v>
       </c>
       <c r="H9">
-        <v>15.90964749827232</v>
+        <v>26.4670720822604</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -629,19 +629,19 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>5.159375015272057</v>
+        <v>9.393072066362237</v>
       </c>
       <c r="E10">
-        <v>20.70052647128698</v>
+        <v>44.79031850332362</v>
       </c>
       <c r="F10">
-        <v>37.29712272872885</v>
+        <v>73.90399863663265</v>
       </c>
       <c r="G10">
-        <v>58.30908890538312</v>
+        <v>120.0492414640801</v>
       </c>
       <c r="H10">
-        <v>16.67484774318619</v>
+        <v>29.84590663756802</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -655,19 +655,19 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>5.295119806458881</v>
+        <v>9.924779221175772</v>
       </c>
       <c r="E11">
-        <v>21.4463021710597</v>
+        <v>47.51498107907756</v>
       </c>
       <c r="F11">
-        <v>38.39657939506924</v>
+        <v>77.88147330100419</v>
       </c>
       <c r="G11">
-        <v>60.280539084373</v>
+        <v>126.5528085089371</v>
       </c>
       <c r="H11">
-        <v>17.0181105394761</v>
+        <v>31.46433111800186</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>5.345639535608059</v>
+        <v>10.13636775195782</v>
       </c>
       <c r="E12">
-        <v>21.72277565408117</v>
+        <v>48.60442632030574</v>
       </c>
       <c r="F12">
-        <v>38.8067745188044</v>
+        <v>79.43986259407183</v>
       </c>
       <c r="G12">
-        <v>61.01311911472015</v>
+        <v>129.1033499151021</v>
       </c>
       <c r="H12">
-        <v>17.14727530363974</v>
+        <v>32.09910688371922</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>5.334798663661791</v>
+        <v>10.09023638305992</v>
       </c>
       <c r="E13">
-        <v>21.66349534754373</v>
+        <v>48.36661410310735</v>
       </c>
       <c r="F13">
-        <v>38.71870855538845</v>
+        <v>79.10132678293846</v>
       </c>
       <c r="G13">
-        <v>60.85596817346873</v>
+        <v>128.549159412227</v>
       </c>
       <c r="H13">
-        <v>17.11949578527255</v>
+        <v>31.96117757104119</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -733,19 +733,19 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>5.299293861980868</v>
+        <v>9.941944613208326</v>
       </c>
       <c r="E14">
-        <v>21.46916648747221</v>
+        <v>47.60324170131938</v>
       </c>
       <c r="F14">
-        <v>38.43045085574378</v>
+        <v>78.00843325340379</v>
       </c>
       <c r="G14">
-        <v>60.34108956117134</v>
+        <v>126.7605436609523</v>
       </c>
       <c r="H14">
-        <v>17.02875414856349</v>
+        <v>31.51603064341687</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -759,19 +759,19 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>5.277430761849376</v>
+        <v>9.852629584382074</v>
       </c>
       <c r="E15">
-        <v>21.34936291773653</v>
+        <v>47.14422680566002</v>
       </c>
       <c r="F15">
-        <v>38.25307759903464</v>
+        <v>77.34682033243334</v>
       </c>
       <c r="G15">
-        <v>60.02388868579958</v>
+        <v>125.6780976155798</v>
       </c>
       <c r="H15">
-        <v>16.97306174473766</v>
+        <v>31.24664253660735</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>5.150380618130093</v>
+        <v>9.359453866363811</v>
       </c>
       <c r="E16">
-        <v>20.65095500525957</v>
+        <v>44.61858315139349</v>
       </c>
       <c r="F16">
-        <v>37.22442356079723</v>
+        <v>73.64968622820912</v>
       </c>
       <c r="G16">
-        <v>58.17830377378787</v>
+        <v>119.6336921692034</v>
       </c>
       <c r="H16">
-        <v>16.65230639989398</v>
+        <v>29.7425058401687</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>5.070875926456229</v>
+        <v>9.06963904758897</v>
       </c>
       <c r="E17">
-        <v>20.21187991088265</v>
+        <v>43.14030145762334</v>
       </c>
       <c r="F17">
-        <v>36.58269053228319</v>
+        <v>71.44398488205555</v>
       </c>
       <c r="G17">
-        <v>57.02138715638991</v>
+        <v>116.0308201286631</v>
       </c>
       <c r="H17">
-        <v>16.45420217812308</v>
+        <v>28.84605831953502</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -837,19 +837,19 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>5.024575959885103</v>
+        <v>8.906406401175227</v>
       </c>
       <c r="E18">
-        <v>19.95541536592154</v>
+        <v>42.3092537647873</v>
       </c>
       <c r="F18">
-        <v>36.20973971098359</v>
+        <v>70.19141053180373</v>
       </c>
       <c r="G18">
-        <v>56.34693520985561</v>
+        <v>113.9857790194212</v>
       </c>
       <c r="H18">
-        <v>16.33981001259283</v>
+        <v>28.3372661313804</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -863,19 +863,19 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>5.008801897977285</v>
+        <v>8.851640870270085</v>
       </c>
       <c r="E19">
-        <v>19.86790610021647</v>
+        <v>42.03065679258157</v>
       </c>
       <c r="F19">
-        <v>36.08281351125076</v>
+        <v>69.76955167229357</v>
       </c>
       <c r="G19">
-        <v>56.11703346922731</v>
+        <v>113.2971701553256</v>
       </c>
       <c r="H19">
-        <v>16.30100592805423</v>
+        <v>28.16595259224457</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -889,19 +889,19 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>5.079398517153265</v>
+        <v>9.1001089814428</v>
       </c>
       <c r="E20">
-        <v>20.25902557245059</v>
+        <v>43.29554722129455</v>
       </c>
       <c r="F20">
-        <v>36.65140384155783</v>
+        <v>71.67699005828131</v>
       </c>
       <c r="G20">
-        <v>57.14547825128371</v>
+        <v>116.4113151973257</v>
       </c>
       <c r="H20">
-        <v>16.47533801822654</v>
+        <v>28.94072650946117</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>5.309746544556227</v>
+        <v>9.985172229555664</v>
       </c>
       <c r="E21">
-        <v>21.52640628333934</v>
+        <v>47.82560118421806</v>
       </c>
       <c r="F21">
-        <v>38.51528771957194</v>
+        <v>78.32774261052144</v>
       </c>
       <c r="G21">
-        <v>60.49270200548483</v>
+        <v>127.283047616073</v>
       </c>
       <c r="H21">
-        <v>17.05543041105215</v>
+        <v>31.64606848862718</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>5.455137147564244</v>
+        <v>10.62848554196549</v>
       </c>
       <c r="E22">
-        <v>22.32013858859543</v>
+        <v>51.1527341234159</v>
       </c>
       <c r="F22">
-        <v>39.69753703054364</v>
+        <v>83.00687130045067</v>
       </c>
       <c r="G22">
-        <v>62.59886043891652</v>
+        <v>134.9471908816516</v>
       </c>
       <c r="H22">
-        <v>17.42971607441617</v>
+        <v>33.55364072727317</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -967,19 +967,19 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>5.378014062561181</v>
+        <v>10.27669120441178</v>
       </c>
       <c r="E23">
-        <v>21.89965602861503</v>
+        <v>49.32886037695858</v>
       </c>
       <c r="F23">
-        <v>39.06990661277875</v>
+        <v>80.46532830195122</v>
       </c>
       <c r="G23">
-        <v>61.48225963977133</v>
+        <v>130.7825003784467</v>
       </c>
       <c r="H23">
-        <v>17.23043429362994</v>
+        <v>32.51703088151394</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -993,19 +993,19 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>5.075547295935126</v>
+        <v>9.086323257699499</v>
       </c>
       <c r="E24">
-        <v>20.23772358888641</v>
+        <v>43.22530352389231</v>
       </c>
       <c r="F24">
-        <v>36.62035102466099</v>
+        <v>71.57160166831476</v>
       </c>
       <c r="G24">
-        <v>57.08940569978326</v>
+        <v>116.2392140847116</v>
       </c>
       <c r="H24">
-        <v>16.46578405071606</v>
+        <v>28.89790715461467</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1019,19 +1019,19 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>4.72752760016914</v>
+        <v>7.934064160509359</v>
       </c>
       <c r="E25">
-        <v>18.2949846601868</v>
+        <v>37.37543895393704</v>
       </c>
       <c r="F25">
-        <v>33.83266512629793</v>
+        <v>62.58753621973656</v>
       </c>
       <c r="G25">
-        <v>52.0071702442389</v>
+        <v>101.5838375087876</v>
       </c>
       <c r="H25">
-        <v>15.62447975441803</v>
+        <v>25.2525602480028</v>
       </c>
       <c r="J25">
         <v>0</v>
